--- a/Optimization Results/Optimization#2/Manual_Data_Collection3.xlsx
+++ b/Optimization Results/Optimization#2/Manual_Data_Collection3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ludwig.Qi\Desktop\POON Lab first analysis\Testing Samecell,Different Exp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peterfu/Desktop/MitoLength/Optimization Results/Optimization#2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B14F229-E2E3-486E-BF11-54ED2579E240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBFDDE4-5CA3-634E-A9DF-8F59A9C0EAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D6329094-ABD8-48CD-8ACE-E50E03646887}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17100" xr2:uid="{D6329094-ABD8-48CD-8ACE-E50E03646887}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="6">
   <si>
     <t>Track</t>
   </si>
@@ -64,7 +64,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -94,9 +94,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -110,7 +121,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -408,13 +419,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D345BD2-8851-4EB7-BE30-3DAA941CB7AF}">
   <dimension ref="A1:E307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A284" workbookViewId="0">
-      <selection activeCell="B244" sqref="B244:E307"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +442,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -448,7 +459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -465,7 +476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -482,7 +493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -499,7 +510,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -516,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -533,7 +544,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -550,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -567,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -584,7 +595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -601,7 +612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -618,7 +629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -635,7 +646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -652,7 +663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -669,7 +680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -686,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -703,7 +714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -720,7 +731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -737,7 +748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -754,7 +765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -771,7 +782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -788,7 +799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -805,7 +816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -822,7 +833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -839,7 +850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -856,7 +867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -873,7 +884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -890,7 +901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -907,7 +918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -924,7 +935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -941,7 +952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -958,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -975,7 +986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -992,7 +1003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1009,12 +1020,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>89</v>
+      <c r="B36" t="s">
+        <v>5</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1026,7 +1037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1043,7 +1054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1060,7 +1071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1077,7 +1088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1094,7 +1105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1111,7 +1122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1128,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1145,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1162,7 +1173,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1179,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1196,7 +1207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1213,7 +1224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1230,7 +1241,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1247,12 +1258,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50">
-        <v>64</v>
+      <c r="B50" t="s">
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -1264,15 +1275,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
-      <c r="C51">
-        <v>49</v>
+      <c r="C51" t="s">
+        <v>5</v>
       </c>
       <c r="D51">
         <v>112</v>
@@ -1281,7 +1292,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1298,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1315,7 +1326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1332,7 +1343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1349,7 +1360,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1366,7 +1377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1383,7 +1394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1400,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1417,7 +1428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1434,7 +1445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1451,12 +1462,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62">
-        <v>3</v>
+      <c r="B62" t="s">
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -1468,15 +1479,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
-      <c r="C63">
-        <v>3</v>
+      <c r="C63" t="s">
+        <v>5</v>
       </c>
       <c r="D63">
         <v>118</v>
@@ -1485,7 +1496,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1502,7 +1513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1519,7 +1530,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1536,7 +1547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1553,7 +1564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1570,7 +1581,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1587,7 +1598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1604,15 +1615,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
-      <c r="C71">
-        <v>3</v>
+      <c r="C71" t="s">
+        <v>5</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1621,15 +1632,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
-      <c r="C72">
-        <v>2</v>
+      <c r="C72" t="s">
+        <v>5</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
@@ -1638,7 +1649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1655,7 +1666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1672,7 +1683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1689,7 +1700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1706,7 +1717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1723,7 +1734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1740,7 +1751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1757,7 +1768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1774,7 +1785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1791,7 +1802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1808,7 +1819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1825,7 +1836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1842,7 +1853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1859,7 +1870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1876,7 +1887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1893,15 +1904,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>5</v>
       </c>
-      <c r="C88">
-        <v>17</v>
+      <c r="C88" t="s">
+        <v>5</v>
       </c>
       <c r="D88" t="s">
         <v>5</v>
@@ -1910,7 +1921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1927,7 +1938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1944,7 +1955,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1961,7 +1972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1978,7 +1989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1995,7 +2006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -2012,7 +2023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -2029,7 +2040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -2046,7 +2057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -2063,7 +2074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -2080,7 +2091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -2097,7 +2108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -2114,7 +2125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -2131,7 +2142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -2148,7 +2159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>101</v>
       </c>
@@ -2165,7 +2176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>102</v>
       </c>
@@ -2182,7 +2193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>103</v>
       </c>
@@ -2199,7 +2210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>104</v>
       </c>
@@ -2216,7 +2227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>105</v>
       </c>
@@ -2233,7 +2244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>106</v>
       </c>
@@ -2250,7 +2261,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>107</v>
       </c>
@@ -2267,7 +2278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>108</v>
       </c>
@@ -2284,7 +2295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>109</v>
       </c>
@@ -2301,7 +2312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>110</v>
       </c>
@@ -2318,7 +2329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>111</v>
       </c>
@@ -2335,7 +2346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>112</v>
       </c>
@@ -2352,7 +2363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>113</v>
       </c>
@@ -2369,7 +2380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>114</v>
       </c>
@@ -2386,7 +2397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>115</v>
       </c>
@@ -2403,7 +2414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>116</v>
       </c>
@@ -2420,7 +2431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>117</v>
       </c>
@@ -2437,7 +2448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>118</v>
       </c>
@@ -2454,7 +2465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>119</v>
       </c>
@@ -2471,7 +2482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>120</v>
       </c>
@@ -2488,7 +2499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>121</v>
       </c>
@@ -2505,7 +2516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>122</v>
       </c>
@@ -2522,7 +2533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>123</v>
       </c>
@@ -2539,7 +2550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>124</v>
       </c>
@@ -2556,7 +2567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>125</v>
       </c>
@@ -2573,7 +2584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>126</v>
       </c>
@@ -2590,7 +2601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>127</v>
       </c>
@@ -2607,7 +2618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>128</v>
       </c>
@@ -2624,7 +2635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>129</v>
       </c>
@@ -2641,7 +2652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>130</v>
       </c>
@@ -2658,7 +2669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>131</v>
       </c>
@@ -2675,7 +2686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>132</v>
       </c>
@@ -2692,7 +2703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>133</v>
       </c>
@@ -2709,7 +2720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>134</v>
       </c>
@@ -2726,7 +2737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>135</v>
       </c>
@@ -2743,7 +2754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>136</v>
       </c>
@@ -2760,7 +2771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>137</v>
       </c>
@@ -2777,7 +2788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>138</v>
       </c>
@@ -2794,7 +2805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>139</v>
       </c>
@@ -2811,7 +2822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>140</v>
       </c>
@@ -2828,7 +2839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>141</v>
       </c>
@@ -2845,7 +2856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>142</v>
       </c>
@@ -2862,7 +2873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>143</v>
       </c>
@@ -2879,7 +2890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>144</v>
       </c>
@@ -2896,7 +2907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>145</v>
       </c>
@@ -2913,7 +2924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>146</v>
       </c>
@@ -2930,7 +2941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>147</v>
       </c>
@@ -2947,7 +2958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>148</v>
       </c>
@@ -2964,7 +2975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>149</v>
       </c>
@@ -2981,7 +2992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>150</v>
       </c>
@@ -2998,7 +3009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>151</v>
       </c>
@@ -3015,7 +3026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>152</v>
       </c>
@@ -3032,7 +3043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>153</v>
       </c>
@@ -3049,7 +3060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>154</v>
       </c>
@@ -3066,7 +3077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>155</v>
       </c>
@@ -3083,7 +3094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>156</v>
       </c>
@@ -3100,7 +3111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>157</v>
       </c>
@@ -3117,7 +3128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>158</v>
       </c>
@@ -3134,7 +3145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>159</v>
       </c>
@@ -3151,7 +3162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>160</v>
       </c>
@@ -3168,7 +3179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>161</v>
       </c>
@@ -3185,7 +3196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>162</v>
       </c>
@@ -3202,7 +3213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>163</v>
       </c>
@@ -3219,7 +3230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>164</v>
       </c>
@@ -3236,7 +3247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>165</v>
       </c>
@@ -3253,7 +3264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>166</v>
       </c>
@@ -3270,7 +3281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>167</v>
       </c>
@@ -3287,7 +3298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>168</v>
       </c>
@@ -3304,7 +3315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>169</v>
       </c>
@@ -3321,7 +3332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>170</v>
       </c>
@@ -3338,7 +3349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>171</v>
       </c>
@@ -3355,7 +3366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>172</v>
       </c>
@@ -3372,7 +3383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>173</v>
       </c>
@@ -3389,7 +3400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>174</v>
       </c>
@@ -3406,7 +3417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>175</v>
       </c>
@@ -3423,7 +3434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>176</v>
       </c>
@@ -3440,7 +3451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>177</v>
       </c>
@@ -3457,7 +3468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>178</v>
       </c>
@@ -3474,7 +3485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>179</v>
       </c>
@@ -3491,7 +3502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>180</v>
       </c>
@@ -3508,7 +3519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>181</v>
       </c>
@@ -3525,7 +3536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>182</v>
       </c>
@@ -3542,7 +3553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>183</v>
       </c>
@@ -3559,7 +3570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>184</v>
       </c>
@@ -3576,7 +3587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>185</v>
       </c>
@@ -3593,7 +3604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>186</v>
       </c>
@@ -3610,7 +3621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>187</v>
       </c>
@@ -3627,7 +3638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>188</v>
       </c>
@@ -3644,7 +3655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>189</v>
       </c>
@@ -3661,7 +3672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>190</v>
       </c>
@@ -3678,7 +3689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>191</v>
       </c>
@@ -3695,7 +3706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>192</v>
       </c>
@@ -3712,7 +3723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>193</v>
       </c>
@@ -3729,7 +3740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>194</v>
       </c>
@@ -3746,7 +3757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>195</v>
       </c>
@@ -3763,7 +3774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>196</v>
       </c>
@@ -3780,7 +3791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>197</v>
       </c>
@@ -3797,7 +3808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>198</v>
       </c>
@@ -3814,7 +3825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>199</v>
       </c>
@@ -3831,7 +3842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>200</v>
       </c>
@@ -3848,7 +3859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>201</v>
       </c>
@@ -3865,7 +3876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>202</v>
       </c>
@@ -3882,7 +3893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>203</v>
       </c>
@@ -3899,7 +3910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>204</v>
       </c>
@@ -3916,7 +3927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>205</v>
       </c>
@@ -3933,7 +3944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>206</v>
       </c>
@@ -3950,15 +3961,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>207</v>
       </c>
       <c r="B209" t="s">
         <v>5</v>
       </c>
-      <c r="C209">
-        <v>103</v>
+      <c r="C209" t="s">
+        <v>5</v>
       </c>
       <c r="D209" t="s">
         <v>5</v>
@@ -3967,7 +3978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>208</v>
       </c>
@@ -3984,7 +3995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>209</v>
       </c>
@@ -4001,7 +4012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>210</v>
       </c>
@@ -4018,7 +4029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>211</v>
       </c>
@@ -4035,7 +4046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>212</v>
       </c>
@@ -4052,7 +4063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>213</v>
       </c>
@@ -4069,7 +4080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>214</v>
       </c>
@@ -4086,7 +4097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>215</v>
       </c>
@@ -4103,7 +4114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>216</v>
       </c>
@@ -4120,7 +4131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>217</v>
       </c>
@@ -4137,7 +4148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>218</v>
       </c>
@@ -4154,7 +4165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>219</v>
       </c>
@@ -4171,7 +4182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>220</v>
       </c>
@@ -4188,7 +4199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>221</v>
       </c>
@@ -4205,7 +4216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>222</v>
       </c>
@@ -4222,7 +4233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>223</v>
       </c>
@@ -4239,7 +4250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>224</v>
       </c>
@@ -4256,7 +4267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>225</v>
       </c>
@@ -4273,7 +4284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>226</v>
       </c>
@@ -4290,7 +4301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>227</v>
       </c>
@@ -4307,7 +4318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>228</v>
       </c>
@@ -4324,7 +4335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>229</v>
       </c>
@@ -4341,7 +4352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>230</v>
       </c>
@@ -4358,7 +4369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>231</v>
       </c>
@@ -4375,7 +4386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>232</v>
       </c>
@@ -4392,7 +4403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>233</v>
       </c>
@@ -4409,7 +4420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>234</v>
       </c>
@@ -4426,7 +4437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>235</v>
       </c>
@@ -4443,7 +4454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>236</v>
       </c>
@@ -4460,12 +4471,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>237</v>
       </c>
-      <c r="B239">
-        <v>143</v>
+      <c r="B239" t="s">
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4477,7 +4488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>238</v>
       </c>
@@ -4494,7 +4505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>239</v>
       </c>
@@ -4511,7 +4522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>240</v>
       </c>
@@ -4528,12 +4539,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>241</v>
       </c>
-      <c r="B243">
-        <v>114</v>
+      <c r="B243" t="s">
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -4545,7 +4556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>242</v>
       </c>
@@ -4562,7 +4573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>243</v>
       </c>
@@ -4579,7 +4590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>244</v>
       </c>
@@ -4596,7 +4607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>245</v>
       </c>
@@ -4613,7 +4624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>246</v>
       </c>
@@ -4630,7 +4641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>247</v>
       </c>
@@ -4647,7 +4658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>248</v>
       </c>
@@ -4664,7 +4675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>249</v>
       </c>
@@ -4681,7 +4692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>250</v>
       </c>
@@ -4698,7 +4709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>251</v>
       </c>
@@ -4715,7 +4726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>252</v>
       </c>
@@ -4732,7 +4743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>253</v>
       </c>
@@ -4749,7 +4760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>254</v>
       </c>
@@ -4766,7 +4777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>255</v>
       </c>
@@ -4783,7 +4794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>256</v>
       </c>
@@ -4800,7 +4811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>257</v>
       </c>
@@ -4817,7 +4828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>258</v>
       </c>
@@ -4834,7 +4845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>259</v>
       </c>
@@ -4851,7 +4862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>260</v>
       </c>
@@ -4868,7 +4879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>261</v>
       </c>
@@ -4885,7 +4896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>262</v>
       </c>
@@ -4902,7 +4913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>263</v>
       </c>
@@ -4919,7 +4930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>264</v>
       </c>
@@ -4936,7 +4947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>265</v>
       </c>
@@ -4953,7 +4964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>266</v>
       </c>
@@ -4970,7 +4981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>267</v>
       </c>
@@ -4987,7 +4998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>268</v>
       </c>
@@ -5004,7 +5015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>269</v>
       </c>
@@ -5021,7 +5032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>270</v>
       </c>
@@ -5038,7 +5049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>271</v>
       </c>
@@ -5055,7 +5066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>272</v>
       </c>
@@ -5072,7 +5083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>273</v>
       </c>
@@ -5089,7 +5100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>274</v>
       </c>
@@ -5106,7 +5117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>275</v>
       </c>
@@ -5123,7 +5134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>276</v>
       </c>
@@ -5140,7 +5151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>277</v>
       </c>
@@ -5157,7 +5168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>278</v>
       </c>
@@ -5174,7 +5185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>279</v>
       </c>
@@ -5191,7 +5202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>280</v>
       </c>
@@ -5208,7 +5219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>281</v>
       </c>
@@ -5225,7 +5236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>282</v>
       </c>
@@ -5242,7 +5253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>283</v>
       </c>
@@ -5259,7 +5270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>284</v>
       </c>
@@ -5276,7 +5287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>285</v>
       </c>
@@ -5293,7 +5304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>286</v>
       </c>
@@ -5310,7 +5321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>287</v>
       </c>
@@ -5327,7 +5338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>288</v>
       </c>
@@ -5344,7 +5355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>289</v>
       </c>
@@ -5361,7 +5372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>290</v>
       </c>
@@ -5378,7 +5389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>291</v>
       </c>
@@ -5395,7 +5406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>292</v>
       </c>
@@ -5412,7 +5423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>293</v>
       </c>
@@ -5429,7 +5440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>294</v>
       </c>
@@ -5446,7 +5457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>295</v>
       </c>
@@ -5463,7 +5474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>296</v>
       </c>
@@ -5480,7 +5491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>297</v>
       </c>
@@ -5497,7 +5508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>298</v>
       </c>
@@ -5514,7 +5525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>299</v>
       </c>
@@ -5531,7 +5542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>300</v>
       </c>
@@ -5548,7 +5559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>301</v>
       </c>
@@ -5565,7 +5576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>302</v>
       </c>
@@ -5582,7 +5593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>303</v>
       </c>
@@ -5599,7 +5610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>304</v>
       </c>
@@ -5616,7 +5627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>305</v>
       </c>
@@ -5634,6 +5645,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="G1:I1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>